--- a/Kode/Server2/Logs/lora_node3/2020-06-09.xlsx
+++ b/Kode/Server2/Logs/lora_node3/2020-06-09.xlsx
@@ -346,7 +346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F378"/>
+  <dimension ref="A1:F603"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7926,6 +7926,4506 @@
         <v>6.0444</v>
       </c>
     </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>249</v>
+      </c>
+      <c r="B379" s="1" t="n">
+        <v>0.696129801400463</v>
+      </c>
+      <c r="C379" t="n">
+        <v>84</v>
+      </c>
+      <c r="D379" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="E379" t="n">
+        <v>15.57</v>
+      </c>
+      <c r="F379" t="n">
+        <v>2.42892</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>250</v>
+      </c>
+      <c r="B380" s="1" t="n">
+        <v>0.6968210313078703</v>
+      </c>
+      <c r="C380" t="n">
+        <v>84</v>
+      </c>
+      <c r="D380" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="E380" t="n">
+        <v>15.57</v>
+      </c>
+      <c r="F380" t="n">
+        <v>2.42892</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>251</v>
+      </c>
+      <c r="B381" s="1" t="n">
+        <v>0.6975175753356482</v>
+      </c>
+      <c r="C381" t="n">
+        <v>84</v>
+      </c>
+      <c r="D381" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="E381" t="n">
+        <v>15.555</v>
+      </c>
+      <c r="F381" t="n">
+        <v>2.42658</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>252</v>
+      </c>
+      <c r="B382" s="1" t="n">
+        <v>0.6982113922222223</v>
+      </c>
+      <c r="C382" t="n">
+        <v>84</v>
+      </c>
+      <c r="D382" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="E382" t="n">
+        <v>15.345</v>
+      </c>
+      <c r="F382" t="n">
+        <v>2.39382</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>253</v>
+      </c>
+      <c r="B383" s="1" t="n">
+        <v>0.698904114537037</v>
+      </c>
+      <c r="C383" t="n">
+        <v>84</v>
+      </c>
+      <c r="D383" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="E383" t="n">
+        <v>15.315</v>
+      </c>
+      <c r="F383" t="n">
+        <v>2.38914</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>254</v>
+      </c>
+      <c r="B384" s="1" t="n">
+        <v>0.6995980811226852</v>
+      </c>
+      <c r="C384" t="n">
+        <v>84</v>
+      </c>
+      <c r="D384" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E384" t="n">
+        <v>13.635</v>
+      </c>
+      <c r="F384" t="n">
+        <v>1.9089</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>3</v>
+      </c>
+      <c r="B385" s="1" t="n">
+        <v>0.7023739550925926</v>
+      </c>
+      <c r="C385" t="n">
+        <v>84</v>
+      </c>
+      <c r="D385" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E385" t="n">
+        <v>13.845</v>
+      </c>
+      <c r="F385" t="n">
+        <v>1.9383</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>4</v>
+      </c>
+      <c r="B386" s="1" t="n">
+        <v>0.703071704861111</v>
+      </c>
+      <c r="C386" t="n">
+        <v>84</v>
+      </c>
+      <c r="D386" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="E386" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="F386" t="n">
+        <v>2.3028</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>7</v>
+      </c>
+      <c r="B387" s="1" t="n">
+        <v>0.7051505802662037</v>
+      </c>
+      <c r="C387" t="n">
+        <v>84</v>
+      </c>
+      <c r="D387" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="E387" t="n">
+        <v>11.385</v>
+      </c>
+      <c r="F387" t="n">
+        <v>1.32066</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>8</v>
+      </c>
+      <c r="B388" s="1" t="n">
+        <v>0.7058467736921296</v>
+      </c>
+      <c r="C388" t="n">
+        <v>84</v>
+      </c>
+      <c r="D388" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="E388" t="n">
+        <v>10.485</v>
+      </c>
+      <c r="F388" t="n">
+        <v>1.13238</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>11</v>
+      </c>
+      <c r="B389" s="1" t="n">
+        <v>0.7079288343518518</v>
+      </c>
+      <c r="C389" t="n">
+        <v>84</v>
+      </c>
+      <c r="D389" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="E389" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="F389" t="n">
+        <v>0.8784000000000001</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>13</v>
+      </c>
+      <c r="B390" s="1" t="n">
+        <v>0.7093151185763888</v>
+      </c>
+      <c r="C390" t="n">
+        <v>84</v>
+      </c>
+      <c r="D390" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="E390" t="n">
+        <v>7.904999999999999</v>
+      </c>
+      <c r="F390" t="n">
+        <v>0.6640199999999999</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>15</v>
+      </c>
+      <c r="B391" s="1" t="n">
+        <v>0.7107149374189815</v>
+      </c>
+      <c r="C391" t="n">
+        <v>84</v>
+      </c>
+      <c r="D391" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="E391" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="F391" t="n">
+        <v>1.06704</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>16</v>
+      </c>
+      <c r="B392" s="1" t="n">
+        <v>0.7113988945023147</v>
+      </c>
+      <c r="C392" t="n">
+        <v>84</v>
+      </c>
+      <c r="D392" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="E392" t="n">
+        <v>10.965</v>
+      </c>
+      <c r="F392" t="n">
+        <v>1.22808</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>18</v>
+      </c>
+      <c r="B393" s="1" t="n">
+        <v>0.7127851453124999</v>
+      </c>
+      <c r="C393" t="n">
+        <v>84</v>
+      </c>
+      <c r="D393" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="E393" t="n">
+        <v>10.53</v>
+      </c>
+      <c r="F393" t="n">
+        <v>1.13724</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>19</v>
+      </c>
+      <c r="B394" s="1" t="n">
+        <v>0.7134795915856481</v>
+      </c>
+      <c r="C394" t="n">
+        <v>84</v>
+      </c>
+      <c r="D394" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="E394" t="n">
+        <v>10.44</v>
+      </c>
+      <c r="F394" t="n">
+        <v>1.12752</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>23</v>
+      </c>
+      <c r="B395" s="1" t="n">
+        <v>0.7162579518055556</v>
+      </c>
+      <c r="C395" t="n">
+        <v>84</v>
+      </c>
+      <c r="D395" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E395" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="F395" t="n">
+        <v>1.005</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>24</v>
+      </c>
+      <c r="B396" s="1" t="n">
+        <v>0.7169495351851852</v>
+      </c>
+      <c r="C396" t="n">
+        <v>84</v>
+      </c>
+      <c r="D396" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="E396" t="n">
+        <v>10.125</v>
+      </c>
+      <c r="F396" t="n">
+        <v>1.053</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>28</v>
+      </c>
+      <c r="B397" s="1" t="n">
+        <v>0.7197262286805556</v>
+      </c>
+      <c r="C397" t="n">
+        <v>84</v>
+      </c>
+      <c r="D397" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E397" t="n">
+        <v>10.545</v>
+      </c>
+      <c r="F397" t="n">
+        <v>1.0545</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>29</v>
+      </c>
+      <c r="B398" s="1" t="n">
+        <v>0.720419973900463</v>
+      </c>
+      <c r="C398" t="n">
+        <v>84</v>
+      </c>
+      <c r="D398" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="E398" t="n">
+        <v>10.725</v>
+      </c>
+      <c r="F398" t="n">
+        <v>1.1154</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>31</v>
+      </c>
+      <c r="B399" s="1" t="n">
+        <v>0.7218085809606481</v>
+      </c>
+      <c r="C399" t="n">
+        <v>84</v>
+      </c>
+      <c r="D399" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="E399" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="F399" t="n">
+        <v>1.16964</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>37</v>
+      </c>
+      <c r="B400" s="1" t="n">
+        <v>0.7259754632523148</v>
+      </c>
+      <c r="C400" t="n">
+        <v>84</v>
+      </c>
+      <c r="D400" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="E400" t="n">
+        <v>10.44</v>
+      </c>
+      <c r="F400" t="n">
+        <v>1.21104</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>38</v>
+      </c>
+      <c r="B401" s="1" t="n">
+        <v>0.7266670261921296</v>
+      </c>
+      <c r="C401" t="n">
+        <v>84</v>
+      </c>
+      <c r="D401" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="E401" t="n">
+        <v>11.295</v>
+      </c>
+      <c r="F401" t="n">
+        <v>1.40058</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>40</v>
+      </c>
+      <c r="B402" s="1" t="n">
+        <v>0.7280557695833334</v>
+      </c>
+      <c r="C402" t="n">
+        <v>84</v>
+      </c>
+      <c r="D402" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="E402" t="n">
+        <v>12.045</v>
+      </c>
+      <c r="F402" t="n">
+        <v>1.58994</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>41</v>
+      </c>
+      <c r="B403" s="1" t="n">
+        <v>0.7287501318981482</v>
+      </c>
+      <c r="C403" t="n">
+        <v>84</v>
+      </c>
+      <c r="D403" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="E403" t="n">
+        <v>12.345</v>
+      </c>
+      <c r="F403" t="n">
+        <v>1.67892</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>43</v>
+      </c>
+      <c r="B404" s="1" t="n">
+        <v>0.7301368686805555</v>
+      </c>
+      <c r="C404" t="n">
+        <v>84</v>
+      </c>
+      <c r="D404" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E404" t="n">
+        <v>12.945</v>
+      </c>
+      <c r="F404" t="n">
+        <v>1.8123</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>45</v>
+      </c>
+      <c r="B405" s="1" t="n">
+        <v>0.7315266385069444</v>
+      </c>
+      <c r="C405" t="n">
+        <v>84</v>
+      </c>
+      <c r="D405" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E405" t="n">
+        <v>10.935</v>
+      </c>
+      <c r="F405" t="n">
+        <v>1.3122</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>49</v>
+      </c>
+      <c r="B406" s="1" t="n">
+        <v>0.7343032965393518</v>
+      </c>
+      <c r="C406" t="n">
+        <v>84</v>
+      </c>
+      <c r="D406" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="E406" t="n">
+        <v>6.359999999999999</v>
+      </c>
+      <c r="F406" t="n">
+        <v>0.48336</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>51</v>
+      </c>
+      <c r="B407" s="1" t="n">
+        <v>0.7356885326736111</v>
+      </c>
+      <c r="C407" t="n">
+        <v>84</v>
+      </c>
+      <c r="D407" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E407" t="n">
+        <v>6.675</v>
+      </c>
+      <c r="F407" t="n">
+        <v>0.534</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>53</v>
+      </c>
+      <c r="B408" s="1" t="n">
+        <v>0.737077466550926</v>
+      </c>
+      <c r="C408" t="n">
+        <v>84</v>
+      </c>
+      <c r="D408" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="E408" t="n">
+        <v>10.095</v>
+      </c>
+      <c r="F408" t="n">
+        <v>1.29216</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>54</v>
+      </c>
+      <c r="B409" s="1" t="n">
+        <v>0.7377732209143518</v>
+      </c>
+      <c r="C409" t="n">
+        <v>84</v>
+      </c>
+      <c r="D409" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="E409" t="n">
+        <v>10.065</v>
+      </c>
+      <c r="F409" t="n">
+        <v>1.28832</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>55</v>
+      </c>
+      <c r="B410" s="1" t="n">
+        <v>0.7384656696759259</v>
+      </c>
+      <c r="C410" t="n">
+        <v>84</v>
+      </c>
+      <c r="D410" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="E410" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="F410" t="n">
+        <v>1.28256</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>56</v>
+      </c>
+      <c r="B411" s="1" t="n">
+        <v>0.7391587444675926</v>
+      </c>
+      <c r="C411" t="n">
+        <v>84</v>
+      </c>
+      <c r="D411" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="E411" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="F411" t="n">
+        <v>1.28256</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>58</v>
+      </c>
+      <c r="B412" s="1" t="n">
+        <v>0.7405467653125</v>
+      </c>
+      <c r="C412" t="n">
+        <v>84</v>
+      </c>
+      <c r="D412" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="E412" t="n">
+        <v>9.945</v>
+      </c>
+      <c r="F412" t="n">
+        <v>1.23318</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>59</v>
+      </c>
+      <c r="B413" s="1" t="n">
+        <v>0.7412426810416667</v>
+      </c>
+      <c r="C413" t="n">
+        <v>84</v>
+      </c>
+      <c r="D413" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="E413" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="F413" t="n">
+        <v>1.2276</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>60</v>
+      </c>
+      <c r="B414" s="1" t="n">
+        <v>0.7419384073611111</v>
+      </c>
+      <c r="C414" t="n">
+        <v>84</v>
+      </c>
+      <c r="D414" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="E414" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="F414" t="n">
+        <v>1.22388</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>62</v>
+      </c>
+      <c r="B415" s="1" t="n">
+        <v>0.7433251177546296</v>
+      </c>
+      <c r="C415" t="n">
+        <v>84</v>
+      </c>
+      <c r="D415" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="E415" t="n">
+        <v>9.734999999999999</v>
+      </c>
+      <c r="F415" t="n">
+        <v>1.20714</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>63</v>
+      </c>
+      <c r="B416" s="1" t="n">
+        <v>0.7440226245601852</v>
+      </c>
+      <c r="C416" t="n">
+        <v>84</v>
+      </c>
+      <c r="D416" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="E416" t="n">
+        <v>9.69</v>
+      </c>
+      <c r="F416" t="n">
+        <v>1.20156</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>66</v>
+      </c>
+      <c r="B417" s="1" t="n">
+        <v>0.7461053363657407</v>
+      </c>
+      <c r="C417" t="n">
+        <v>84</v>
+      </c>
+      <c r="D417" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="E417" t="n">
+        <v>9.66</v>
+      </c>
+      <c r="F417" t="n">
+        <v>1.23648</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>67</v>
+      </c>
+      <c r="B418" s="1" t="n">
+        <v>0.7467975778009259</v>
+      </c>
+      <c r="C418" t="n">
+        <v>84</v>
+      </c>
+      <c r="D418" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="E418" t="n">
+        <v>9.645</v>
+      </c>
+      <c r="F418" t="n">
+        <v>1.19598</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>68</v>
+      </c>
+      <c r="B419" s="1" t="n">
+        <v>0.7474889978703704</v>
+      </c>
+      <c r="C419" t="n">
+        <v>84</v>
+      </c>
+      <c r="D419" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="E419" t="n">
+        <v>9.629999999999999</v>
+      </c>
+      <c r="F419" t="n">
+        <v>1.19412</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>70</v>
+      </c>
+      <c r="B420" s="1" t="n">
+        <v>0.7488812559490741</v>
+      </c>
+      <c r="C420" t="n">
+        <v>84</v>
+      </c>
+      <c r="D420" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E420" t="n">
+        <v>9.629999999999999</v>
+      </c>
+      <c r="F420" t="n">
+        <v>1.1556</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>72</v>
+      </c>
+      <c r="B421" s="1" t="n">
+        <v>0.7502656080208333</v>
+      </c>
+      <c r="C421" t="n">
+        <v>84</v>
+      </c>
+      <c r="D421" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E421" t="n">
+        <v>9.584999999999999</v>
+      </c>
+      <c r="F421" t="n">
+        <v>1.1502</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>74</v>
+      </c>
+      <c r="B422" s="1" t="n">
+        <v>0.7516591143402778</v>
+      </c>
+      <c r="C422" t="n">
+        <v>84</v>
+      </c>
+      <c r="D422" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="E422" t="n">
+        <v>9.584999999999999</v>
+      </c>
+      <c r="F422" t="n">
+        <v>1.11186</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>78</v>
+      </c>
+      <c r="B423" s="1" t="n">
+        <v>0.7544349831712962</v>
+      </c>
+      <c r="C423" t="n">
+        <v>84</v>
+      </c>
+      <c r="D423" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="E423" t="n">
+        <v>9.525</v>
+      </c>
+      <c r="F423" t="n">
+        <v>1.0668</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>80</v>
+      </c>
+      <c r="B424" s="1" t="n">
+        <v>0.7558210998032407</v>
+      </c>
+      <c r="C424" t="n">
+        <v>84</v>
+      </c>
+      <c r="D424" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="E424" t="n">
+        <v>9.435</v>
+      </c>
+      <c r="F424" t="n">
+        <v>1.05672</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>81</v>
+      </c>
+      <c r="B425" s="1" t="n">
+        <v>0.7565140717708333</v>
+      </c>
+      <c r="C425" t="n">
+        <v>84</v>
+      </c>
+      <c r="D425" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="E425" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="F425" t="n">
+        <v>1.0584</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>82</v>
+      </c>
+      <c r="B426" s="1" t="n">
+        <v>0.7572105363425925</v>
+      </c>
+      <c r="C426" t="n">
+        <v>84</v>
+      </c>
+      <c r="D426" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="E426" t="n">
+        <v>9.389999999999999</v>
+      </c>
+      <c r="F426" t="n">
+        <v>1.05168</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>84</v>
+      </c>
+      <c r="B427" s="1" t="n">
+        <v>0.758595305613426</v>
+      </c>
+      <c r="C427" t="n">
+        <v>84</v>
+      </c>
+      <c r="D427" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="E427" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="F427" t="n">
+        <v>1.08576</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>86</v>
+      </c>
+      <c r="B428" s="1" t="n">
+        <v>0.7599843584027778</v>
+      </c>
+      <c r="C428" t="n">
+        <v>84</v>
+      </c>
+      <c r="D428" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="E428" t="n">
+        <v>9.315</v>
+      </c>
+      <c r="F428" t="n">
+        <v>1.08054</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>88</v>
+      </c>
+      <c r="B429" s="1" t="n">
+        <v>0.7613710000694445</v>
+      </c>
+      <c r="C429" t="n">
+        <v>84</v>
+      </c>
+      <c r="D429" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="E429" t="n">
+        <v>9.285</v>
+      </c>
+      <c r="F429" t="n">
+        <v>1.07706</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>91</v>
+      </c>
+      <c r="B430" s="1" t="n">
+        <v>0.7634574622453704</v>
+      </c>
+      <c r="C430" t="n">
+        <v>84</v>
+      </c>
+      <c r="D430" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="E430" t="n">
+        <v>9.299999999999999</v>
+      </c>
+      <c r="F430" t="n">
+        <v>1.0788</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>94</v>
+      </c>
+      <c r="B431" s="1" t="n">
+        <v>0.7655361097222222</v>
+      </c>
+      <c r="C431" t="n">
+        <v>84</v>
+      </c>
+      <c r="D431" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="E431" t="n">
+        <v>9.285</v>
+      </c>
+      <c r="F431" t="n">
+        <v>1.07706</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>95</v>
+      </c>
+      <c r="B432" s="1" t="n">
+        <v>0.7662312204745371</v>
+      </c>
+      <c r="C432" t="n">
+        <v>84</v>
+      </c>
+      <c r="D432" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E432" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="F432" t="n">
+        <v>1.1124</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>96</v>
+      </c>
+      <c r="B433" s="1" t="n">
+        <v>0.7669249361689814</v>
+      </c>
+      <c r="C433" t="n">
+        <v>84</v>
+      </c>
+      <c r="D433" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E433" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="F433" t="n">
+        <v>1.1124</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>100</v>
+      </c>
+      <c r="B434" s="1" t="n">
+        <v>0.7696997968865741</v>
+      </c>
+      <c r="C434" t="n">
+        <v>84</v>
+      </c>
+      <c r="D434" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="E434" t="n">
+        <v>9.225</v>
+      </c>
+      <c r="F434" t="n">
+        <v>1.1439</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>101</v>
+      </c>
+      <c r="B435" s="1" t="n">
+        <v>0.7703959408564814</v>
+      </c>
+      <c r="C435" t="n">
+        <v>84</v>
+      </c>
+      <c r="D435" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="E435" t="n">
+        <v>9.195</v>
+      </c>
+      <c r="F435" t="n">
+        <v>1.14018</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>102</v>
+      </c>
+      <c r="B436" s="1" t="n">
+        <v>0.7710877431712964</v>
+      </c>
+      <c r="C436" t="n">
+        <v>84</v>
+      </c>
+      <c r="D436" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="E436" t="n">
+        <v>9.195</v>
+      </c>
+      <c r="F436" t="n">
+        <v>1.14018</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>103</v>
+      </c>
+      <c r="B437" s="1" t="n">
+        <v>0.7717860349189815</v>
+      </c>
+      <c r="C437" t="n">
+        <v>84</v>
+      </c>
+      <c r="D437" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="E437" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="F437" t="n">
+        <v>1.12716</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>105</v>
+      </c>
+      <c r="B438" s="1" t="n">
+        <v>0.7731708875000001</v>
+      </c>
+      <c r="C438" t="n">
+        <v>84</v>
+      </c>
+      <c r="D438" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="E438" t="n">
+        <v>9.135</v>
+      </c>
+      <c r="F438" t="n">
+        <v>1.13274</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>106</v>
+      </c>
+      <c r="B439" s="1" t="n">
+        <v>0.7738669008912038</v>
+      </c>
+      <c r="C439" t="n">
+        <v>84</v>
+      </c>
+      <c r="D439" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="E439" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="F439" t="n">
+        <v>1.12716</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>107</v>
+      </c>
+      <c r="B440" s="1" t="n">
+        <v>0.7745614207870369</v>
+      </c>
+      <c r="C440" t="n">
+        <v>84</v>
+      </c>
+      <c r="D440" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="E440" t="n">
+        <v>9.074999999999999</v>
+      </c>
+      <c r="F440" t="n">
+        <v>1.1253</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>110</v>
+      </c>
+      <c r="B441" s="1" t="n">
+        <v>0.7766429580324075</v>
+      </c>
+      <c r="C441" t="n">
+        <v>84</v>
+      </c>
+      <c r="D441" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E441" t="n">
+        <v>9.105</v>
+      </c>
+      <c r="F441" t="n">
+        <v>1.0926</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>111</v>
+      </c>
+      <c r="B442" s="1" t="n">
+        <v>0.7773371582060185</v>
+      </c>
+      <c r="C442" t="n">
+        <v>84</v>
+      </c>
+      <c r="D442" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E442" t="n">
+        <v>9.105</v>
+      </c>
+      <c r="F442" t="n">
+        <v>1.0926</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>112</v>
+      </c>
+      <c r="B443" s="1" t="n">
+        <v>0.7780296999537037</v>
+      </c>
+      <c r="C443" t="n">
+        <v>84</v>
+      </c>
+      <c r="D443" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E443" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="F443" t="n">
+        <v>1.0908</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>113</v>
+      </c>
+      <c r="B444" s="1" t="n">
+        <v>0.7787238915625001</v>
+      </c>
+      <c r="C444" t="n">
+        <v>84</v>
+      </c>
+      <c r="D444" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E444" t="n">
+        <v>9.074999999999999</v>
+      </c>
+      <c r="F444" t="n">
+        <v>1.089</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>114</v>
+      </c>
+      <c r="B445" s="1" t="n">
+        <v>0.7794218231828703</v>
+      </c>
+      <c r="C445" t="n">
+        <v>84</v>
+      </c>
+      <c r="D445" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E445" t="n">
+        <v>9.045</v>
+      </c>
+      <c r="F445" t="n">
+        <v>1.0854</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>115</v>
+      </c>
+      <c r="B446" s="1" t="n">
+        <v>0.7801250742361112</v>
+      </c>
+      <c r="C446" t="n">
+        <v>84</v>
+      </c>
+      <c r="D446" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E446" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="F446" t="n">
+        <v>1.0908</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>116</v>
+      </c>
+      <c r="B447" s="1" t="n">
+        <v>0.7808059838657407</v>
+      </c>
+      <c r="C447" t="n">
+        <v>84</v>
+      </c>
+      <c r="D447" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E447" t="n">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="F447" t="n">
+        <v>1.0944</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>117</v>
+      </c>
+      <c r="B448" s="1" t="n">
+        <v>0.7814989683333333</v>
+      </c>
+      <c r="C448" t="n">
+        <v>84</v>
+      </c>
+      <c r="D448" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="E448" t="n">
+        <v>9.135</v>
+      </c>
+      <c r="F448" t="n">
+        <v>1.13274</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>119</v>
+      </c>
+      <c r="B449" s="1" t="n">
+        <v>0.7828868446643519</v>
+      </c>
+      <c r="C449" t="n">
+        <v>84</v>
+      </c>
+      <c r="D449" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E449" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="F449" t="n">
+        <v>1.0908</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>121</v>
+      </c>
+      <c r="B450" s="1" t="n">
+        <v>0.7842769170023147</v>
+      </c>
+      <c r="C450" t="n">
+        <v>84</v>
+      </c>
+      <c r="D450" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E450" t="n">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="F450" t="n">
+        <v>1.0944</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>122</v>
+      </c>
+      <c r="B451" s="1" t="n">
+        <v>0.7849695949074075</v>
+      </c>
+      <c r="C451" t="n">
+        <v>84</v>
+      </c>
+      <c r="D451" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="E451" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="F451" t="n">
+        <v>1.1346</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>124</v>
+      </c>
+      <c r="B452" s="1" t="n">
+        <v>0.7863565480671296</v>
+      </c>
+      <c r="C452" t="n">
+        <v>84</v>
+      </c>
+      <c r="D452" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="E452" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="F452" t="n">
+        <v>1.1346</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>126</v>
+      </c>
+      <c r="B453" s="1" t="n">
+        <v>0.7877458073842593</v>
+      </c>
+      <c r="C453" t="n">
+        <v>84</v>
+      </c>
+      <c r="D453" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="E453" t="n">
+        <v>9.135</v>
+      </c>
+      <c r="F453" t="n">
+        <v>1.13274</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>127</v>
+      </c>
+      <c r="B454" s="1" t="n">
+        <v>0.7884401896990741</v>
+      </c>
+      <c r="C454" t="n">
+        <v>84</v>
+      </c>
+      <c r="D454" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E454" t="n">
+        <v>9.105</v>
+      </c>
+      <c r="F454" t="n">
+        <v>1.0926</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>128</v>
+      </c>
+      <c r="B455" s="1" t="n">
+        <v>0.7891346337268519</v>
+      </c>
+      <c r="C455" t="n">
+        <v>84</v>
+      </c>
+      <c r="D455" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E455" t="n">
+        <v>9.074999999999999</v>
+      </c>
+      <c r="F455" t="n">
+        <v>1.089</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>131</v>
+      </c>
+      <c r="B456" s="1" t="n">
+        <v>0.7912176046064815</v>
+      </c>
+      <c r="C456" t="n">
+        <v>84</v>
+      </c>
+      <c r="D456" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E456" t="n">
+        <v>8.969999999999999</v>
+      </c>
+      <c r="F456" t="n">
+        <v>1.0764</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>134</v>
+      </c>
+      <c r="B457" s="1" t="n">
+        <v>0.7933051043171296</v>
+      </c>
+      <c r="C457" t="n">
+        <v>84</v>
+      </c>
+      <c r="D457" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E457" t="n">
+        <v>8.924999999999999</v>
+      </c>
+      <c r="F457" t="n">
+        <v>1.071</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>135</v>
+      </c>
+      <c r="B458" s="1" t="n">
+        <v>0.7939937428819445</v>
+      </c>
+      <c r="C458" t="n">
+        <v>84</v>
+      </c>
+      <c r="D458" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E458" t="n">
+        <v>9.014999999999999</v>
+      </c>
+      <c r="F458" t="n">
+        <v>1.0818</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>136</v>
+      </c>
+      <c r="B459" s="1" t="n">
+        <v>0.7946864669328704</v>
+      </c>
+      <c r="C459" t="n">
+        <v>84</v>
+      </c>
+      <c r="D459" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E459" t="n">
+        <v>9.014999999999999</v>
+      </c>
+      <c r="F459" t="n">
+        <v>1.0818</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>140</v>
+      </c>
+      <c r="B460" s="1" t="n">
+        <v>0.7974620102777779</v>
+      </c>
+      <c r="C460" t="n">
+        <v>84</v>
+      </c>
+      <c r="D460" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E460" t="n">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="F460" t="n">
+        <v>1.0548</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>141</v>
+      </c>
+      <c r="B461" s="1" t="n">
+        <v>0.7981583121064815</v>
+      </c>
+      <c r="C461" t="n">
+        <v>84</v>
+      </c>
+      <c r="D461" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="E461" t="n">
+        <v>8.625</v>
+      </c>
+      <c r="F461" t="n">
+        <v>1.0005</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>144</v>
+      </c>
+      <c r="B462" s="1" t="n">
+        <v>0.800242394537037</v>
+      </c>
+      <c r="C462" t="n">
+        <v>84</v>
+      </c>
+      <c r="D462" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="E462" t="n">
+        <v>8.459999999999999</v>
+      </c>
+      <c r="F462" t="n">
+        <v>0.9813599999999999</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>145</v>
+      </c>
+      <c r="B463" s="1" t="n">
+        <v>0.8009317491898148</v>
+      </c>
+      <c r="C463" t="n">
+        <v>84</v>
+      </c>
+      <c r="D463" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="E463" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="F463" t="n">
+        <v>0.97092</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>146</v>
+      </c>
+      <c r="B464" s="1" t="n">
+        <v>0.8016281426273147</v>
+      </c>
+      <c r="C464" t="n">
+        <v>84</v>
+      </c>
+      <c r="D464" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="E464" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="F464" t="n">
+        <v>0.96048</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>150</v>
+      </c>
+      <c r="B465" s="1" t="n">
+        <v>0.8044019834722222</v>
+      </c>
+      <c r="C465" t="n">
+        <v>84</v>
+      </c>
+      <c r="D465" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="E465" t="n">
+        <v>8.174999999999999</v>
+      </c>
+      <c r="F465" t="n">
+        <v>0.9482999999999999</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>153</v>
+      </c>
+      <c r="B466" s="1" t="n">
+        <v>0.8064892737499999</v>
+      </c>
+      <c r="C466" t="n">
+        <v>84</v>
+      </c>
+      <c r="D466" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="E466" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="F466" t="n">
+        <v>0.9326399999999999</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>155</v>
+      </c>
+      <c r="B467" s="1" t="n">
+        <v>0.8078749891203704</v>
+      </c>
+      <c r="C467" t="n">
+        <v>84</v>
+      </c>
+      <c r="D467" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="E467" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="F467" t="n">
+        <v>0.9326399999999999</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>157</v>
+      </c>
+      <c r="B468" s="1" t="n">
+        <v>0.8092629828703705</v>
+      </c>
+      <c r="C468" t="n">
+        <v>84</v>
+      </c>
+      <c r="D468" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="E468" t="n">
+        <v>8.174999999999999</v>
+      </c>
+      <c r="F468" t="n">
+        <v>0.9482999999999999</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>158</v>
+      </c>
+      <c r="B469" s="1" t="n">
+        <v>0.8099600598032408</v>
+      </c>
+      <c r="C469" t="n">
+        <v>84</v>
+      </c>
+      <c r="D469" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E469" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="F469" t="n">
+        <v>0.9935999999999999</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>159</v>
+      </c>
+      <c r="B470" s="1" t="n">
+        <v>0.8106518286689816</v>
+      </c>
+      <c r="C470" t="n">
+        <v>84</v>
+      </c>
+      <c r="D470" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E470" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="F470" t="n">
+        <v>1.0044</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>160</v>
+      </c>
+      <c r="B471" s="1" t="n">
+        <v>0.8113444805671297</v>
+      </c>
+      <c r="C471" t="n">
+        <v>84</v>
+      </c>
+      <c r="D471" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E471" t="n">
+        <v>8.385</v>
+      </c>
+      <c r="F471" t="n">
+        <v>1.0062</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>161</v>
+      </c>
+      <c r="B472" s="1" t="n">
+        <v>0.8120374549768519</v>
+      </c>
+      <c r="C472" t="n">
+        <v>84</v>
+      </c>
+      <c r="D472" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E472" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="F472" t="n">
+        <v>1.0116</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>162</v>
+      </c>
+      <c r="B473" s="1" t="n">
+        <v>0.8127344605324074</v>
+      </c>
+      <c r="C473" t="n">
+        <v>84</v>
+      </c>
+      <c r="D473" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E473" t="n">
+        <v>8.385</v>
+      </c>
+      <c r="F473" t="n">
+        <v>1.0062</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>163</v>
+      </c>
+      <c r="B474" s="1" t="n">
+        <v>0.8134258178587963</v>
+      </c>
+      <c r="C474" t="n">
+        <v>84</v>
+      </c>
+      <c r="D474" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E474" t="n">
+        <v>8.385</v>
+      </c>
+      <c r="F474" t="n">
+        <v>1.0062</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>165</v>
+      </c>
+      <c r="B475" s="1" t="n">
+        <v>0.8148148373958333</v>
+      </c>
+      <c r="C475" t="n">
+        <v>84</v>
+      </c>
+      <c r="D475" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E475" t="n">
+        <v>8.385</v>
+      </c>
+      <c r="F475" t="n">
+        <v>1.0062</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>166</v>
+      </c>
+      <c r="B476" s="1" t="n">
+        <v>0.8155065081018519</v>
+      </c>
+      <c r="C476" t="n">
+        <v>84</v>
+      </c>
+      <c r="D476" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E476" t="n">
+        <v>8.385</v>
+      </c>
+      <c r="F476" t="n">
+        <v>1.0062</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>168</v>
+      </c>
+      <c r="B477" s="1" t="n">
+        <v>0.816898290914352</v>
+      </c>
+      <c r="C477" t="n">
+        <v>84</v>
+      </c>
+      <c r="D477" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="E477" t="n">
+        <v>8.504999999999999</v>
+      </c>
+      <c r="F477" t="n">
+        <v>1.05462</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>170</v>
+      </c>
+      <c r="B478" s="1" t="n">
+        <v>0.8182839763425925</v>
+      </c>
+      <c r="C478" t="n">
+        <v>84</v>
+      </c>
+      <c r="D478" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="E478" t="n">
+        <v>8.654999999999999</v>
+      </c>
+      <c r="F478" t="n">
+        <v>1.07322</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>171</v>
+      </c>
+      <c r="B479" s="1" t="n">
+        <v>0.8189806313657407</v>
+      </c>
+      <c r="C479" t="n">
+        <v>84</v>
+      </c>
+      <c r="D479" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="E479" t="n">
+        <v>8.685</v>
+      </c>
+      <c r="F479" t="n">
+        <v>1.07694</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>173</v>
+      </c>
+      <c r="B480" s="1" t="n">
+        <v>0.8203668957638889</v>
+      </c>
+      <c r="C480" t="n">
+        <v>84</v>
+      </c>
+      <c r="D480" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="E480" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="F480" t="n">
+        <v>1.11744</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>174</v>
+      </c>
+      <c r="B481" s="1" t="n">
+        <v>0.8210593508101852</v>
+      </c>
+      <c r="C481" t="n">
+        <v>84</v>
+      </c>
+      <c r="D481" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="E481" t="n">
+        <v>8.834999999999999</v>
+      </c>
+      <c r="F481" t="n">
+        <v>1.13088</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>176</v>
+      </c>
+      <c r="B482" s="1" t="n">
+        <v>0.8224482805439814</v>
+      </c>
+      <c r="C482" t="n">
+        <v>84</v>
+      </c>
+      <c r="D482" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="E482" t="n">
+        <v>8.984999999999999</v>
+      </c>
+      <c r="F482" t="n">
+        <v>1.15008</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>179</v>
+      </c>
+      <c r="B483" s="1" t="n">
+        <v>0.8245307305439815</v>
+      </c>
+      <c r="C483" t="n">
+        <v>84</v>
+      </c>
+      <c r="D483" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="E483" t="n">
+        <v>9.105</v>
+      </c>
+      <c r="F483" t="n">
+        <v>1.16544</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>181</v>
+      </c>
+      <c r="B484" s="1" t="n">
+        <v>0.825918598136574</v>
+      </c>
+      <c r="C484" t="n">
+        <v>84</v>
+      </c>
+      <c r="D484" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="E484" t="n">
+        <v>9.254999999999999</v>
+      </c>
+      <c r="F484" t="n">
+        <v>1.22166</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>183</v>
+      </c>
+      <c r="B485" s="1" t="n">
+        <v>0.8273071503125</v>
+      </c>
+      <c r="C485" t="n">
+        <v>84</v>
+      </c>
+      <c r="D485" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="E485" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="F485" t="n">
+        <v>1.23552</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>184</v>
+      </c>
+      <c r="B486" s="1" t="n">
+        <v>0.8280011564699074</v>
+      </c>
+      <c r="C486" t="n">
+        <v>84</v>
+      </c>
+      <c r="D486" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="E486" t="n">
+        <v>9.285</v>
+      </c>
+      <c r="F486" t="n">
+        <v>1.22562</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>186</v>
+      </c>
+      <c r="B487" s="1" t="n">
+        <v>0.8293891667592593</v>
+      </c>
+      <c r="C487" t="n">
+        <v>84</v>
+      </c>
+      <c r="D487" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="E487" t="n">
+        <v>9.195</v>
+      </c>
+      <c r="F487" t="n">
+        <v>1.21374</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>192</v>
+      </c>
+      <c r="B488" s="1" t="n">
+        <v>0.8335533848148148</v>
+      </c>
+      <c r="C488" t="n">
+        <v>84</v>
+      </c>
+      <c r="D488" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="E488" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="F488" t="n">
+        <v>1.23552</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>193</v>
+      </c>
+      <c r="B489" s="1" t="n">
+        <v>0.8342470389930555</v>
+      </c>
+      <c r="C489" t="n">
+        <v>84</v>
+      </c>
+      <c r="D489" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="E489" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="F489" t="n">
+        <v>1.23552</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>194</v>
+      </c>
+      <c r="B490" s="1" t="n">
+        <v>0.8349424475694445</v>
+      </c>
+      <c r="C490" t="n">
+        <v>84</v>
+      </c>
+      <c r="D490" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="E490" t="n">
+        <v>9.344999999999999</v>
+      </c>
+      <c r="F490" t="n">
+        <v>1.23354</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>195</v>
+      </c>
+      <c r="B491" s="1" t="n">
+        <v>0.8356361601851852</v>
+      </c>
+      <c r="C491" t="n">
+        <v>84</v>
+      </c>
+      <c r="D491" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="E491" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="F491" t="n">
+        <v>1.16352</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>198</v>
+      </c>
+      <c r="B492" s="1" t="n">
+        <v>0.8377194526041667</v>
+      </c>
+      <c r="C492" t="n">
+        <v>84</v>
+      </c>
+      <c r="D492" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="E492" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="F492" t="n">
+        <v>1.25928</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>199</v>
+      </c>
+      <c r="B493" s="1" t="n">
+        <v>0.8384116995717593</v>
+      </c>
+      <c r="C493" t="n">
+        <v>84</v>
+      </c>
+      <c r="D493" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="E493" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="F493" t="n">
+        <v>1.26324</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>201</v>
+      </c>
+      <c r="B494" s="1" t="n">
+        <v>0.8398011397337963</v>
+      </c>
+      <c r="C494" t="n">
+        <v>84</v>
+      </c>
+      <c r="D494" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="E494" t="n">
+        <v>9.615</v>
+      </c>
+      <c r="F494" t="n">
+        <v>1.26918</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>202</v>
+      </c>
+      <c r="B495" s="1" t="n">
+        <v>0.8404934814120371</v>
+      </c>
+      <c r="C495" t="n">
+        <v>84</v>
+      </c>
+      <c r="D495" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="E495" t="n">
+        <v>9.584999999999999</v>
+      </c>
+      <c r="F495" t="n">
+        <v>1.26522</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>203</v>
+      </c>
+      <c r="B496" s="1" t="n">
+        <v>0.8411841209490741</v>
+      </c>
+      <c r="C496" t="n">
+        <v>84</v>
+      </c>
+      <c r="D496" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="E496" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="F496" t="n">
+        <v>1.2474</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>205</v>
+      </c>
+      <c r="B497" s="1" t="n">
+        <v>0.8425716593171297</v>
+      </c>
+      <c r="C497" t="n">
+        <v>84</v>
+      </c>
+      <c r="D497" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="E497" t="n">
+        <v>9.615</v>
+      </c>
+      <c r="F497" t="n">
+        <v>1.26918</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>207</v>
+      </c>
+      <c r="B498" s="1" t="n">
+        <v>0.8439595073379629</v>
+      </c>
+      <c r="C498" t="n">
+        <v>84</v>
+      </c>
+      <c r="D498" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="E498" t="n">
+        <v>9.42</v>
+      </c>
+      <c r="F498" t="n">
+        <v>1.24344</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>209</v>
+      </c>
+      <c r="B499" s="1" t="n">
+        <v>0.8453482559375001</v>
+      </c>
+      <c r="C499" t="n">
+        <v>84</v>
+      </c>
+      <c r="D499" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="E499" t="n">
+        <v>9.435</v>
+      </c>
+      <c r="F499" t="n">
+        <v>1.20768</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>211</v>
+      </c>
+      <c r="B500" s="1" t="n">
+        <v>0.8467359021180556</v>
+      </c>
+      <c r="C500" t="n">
+        <v>84</v>
+      </c>
+      <c r="D500" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E500" t="n">
+        <v>8.67</v>
+      </c>
+      <c r="F500" t="n">
+        <v>1.0404</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>212</v>
+      </c>
+      <c r="B501" s="1" t="n">
+        <v>0.8474322513773148</v>
+      </c>
+      <c r="C501" t="n">
+        <v>84</v>
+      </c>
+      <c r="D501" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E501" t="n">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="F501" t="n">
+        <v>1.0368</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>213</v>
+      </c>
+      <c r="B502" s="1" t="n">
+        <v>0.8481243382638889</v>
+      </c>
+      <c r="C502" t="n">
+        <v>84</v>
+      </c>
+      <c r="D502" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="E502" t="n">
+        <v>9.074999999999999</v>
+      </c>
+      <c r="F502" t="n">
+        <v>1.1253</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>216</v>
+      </c>
+      <c r="B503" s="1" t="n">
+        <v>0.8502066400925925</v>
+      </c>
+      <c r="C503" t="n">
+        <v>84</v>
+      </c>
+      <c r="D503" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="E503" t="n">
+        <v>9.824999999999999</v>
+      </c>
+      <c r="F503" t="n">
+        <v>1.2969</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>217</v>
+      </c>
+      <c r="B504" s="1" t="n">
+        <v>0.8509002031828703</v>
+      </c>
+      <c r="C504" t="n">
+        <v>84</v>
+      </c>
+      <c r="D504" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="E504" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="F504" t="n">
+        <v>1.3668</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>218</v>
+      </c>
+      <c r="B505" s="1" t="n">
+        <v>0.8515946219212963</v>
+      </c>
+      <c r="C505" t="n">
+        <v>84</v>
+      </c>
+      <c r="D505" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="E505" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="F505" t="n">
+        <v>1.35864</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="n">
+        <v>219</v>
+      </c>
+      <c r="B506" s="1" t="n">
+        <v>0.852293056701389</v>
+      </c>
+      <c r="C506" t="n">
+        <v>84</v>
+      </c>
+      <c r="D506" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="E506" t="n">
+        <v>9.674999999999999</v>
+      </c>
+      <c r="F506" t="n">
+        <v>1.2771</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>222</v>
+      </c>
+      <c r="B507" s="1" t="n">
+        <v>0.8543708351041667</v>
+      </c>
+      <c r="C507" t="n">
+        <v>84</v>
+      </c>
+      <c r="D507" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="E507" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="F507" t="n">
+        <v>1.36272</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="n">
+        <v>224</v>
+      </c>
+      <c r="B508" s="1" t="n">
+        <v>0.8557596359722222</v>
+      </c>
+      <c r="C508" t="n">
+        <v>84</v>
+      </c>
+      <c r="D508" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="E508" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="F508" t="n">
+        <v>1.31076</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>227</v>
+      </c>
+      <c r="B509" s="1" t="n">
+        <v>0.8578400448379631</v>
+      </c>
+      <c r="C509" t="n">
+        <v>84</v>
+      </c>
+      <c r="D509" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="E509" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="F509" t="n">
+        <v>1.29096</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>230</v>
+      </c>
+      <c r="B510" s="1" t="n">
+        <v>0.8599260324074075</v>
+      </c>
+      <c r="C510" t="n">
+        <v>84</v>
+      </c>
+      <c r="D510" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="E510" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="F510" t="n">
+        <v>1.22112</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>231</v>
+      </c>
+      <c r="B511" s="1" t="n">
+        <v>0.8606180962847222</v>
+      </c>
+      <c r="C511" t="n">
+        <v>84</v>
+      </c>
+      <c r="D511" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="E511" t="n">
+        <v>9.435</v>
+      </c>
+      <c r="F511" t="n">
+        <v>1.16994</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>232</v>
+      </c>
+      <c r="B512" s="1" t="n">
+        <v>0.861310560775463</v>
+      </c>
+      <c r="C512" t="n">
+        <v>84</v>
+      </c>
+      <c r="D512" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="E512" t="n">
+        <v>9.404999999999999</v>
+      </c>
+      <c r="F512" t="n">
+        <v>1.16622</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>233</v>
+      </c>
+      <c r="B513" s="1" t="n">
+        <v>0.8620057742245371</v>
+      </c>
+      <c r="C513" t="n">
+        <v>84</v>
+      </c>
+      <c r="D513" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="E513" t="n">
+        <v>9.344999999999999</v>
+      </c>
+      <c r="F513" t="n">
+        <v>1.15878</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>234</v>
+      </c>
+      <c r="B514" s="1" t="n">
+        <v>0.8627004267939815</v>
+      </c>
+      <c r="C514" t="n">
+        <v>84</v>
+      </c>
+      <c r="D514" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="E514" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="F514" t="n">
+        <v>1.14576</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>235</v>
+      </c>
+      <c r="B515" s="1" t="n">
+        <v>0.8633957719907408</v>
+      </c>
+      <c r="C515" t="n">
+        <v>84</v>
+      </c>
+      <c r="D515" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E515" t="n">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="F515" t="n">
+        <v>1.0944</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>237</v>
+      </c>
+      <c r="B516" s="1" t="n">
+        <v>0.8647815097337963</v>
+      </c>
+      <c r="C516" t="n">
+        <v>84</v>
+      </c>
+      <c r="D516" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E516" t="n">
+        <v>8.895</v>
+      </c>
+      <c r="F516" t="n">
+        <v>1.0674</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>238</v>
+      </c>
+      <c r="B517" s="1" t="n">
+        <v>0.8654754009722221</v>
+      </c>
+      <c r="C517" t="n">
+        <v>84</v>
+      </c>
+      <c r="D517" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E517" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="F517" t="n">
+        <v>1.062</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>239</v>
+      </c>
+      <c r="B518" s="1" t="n">
+        <v>0.8661698435069445</v>
+      </c>
+      <c r="C518" t="n">
+        <v>84</v>
+      </c>
+      <c r="D518" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="E518" t="n">
+        <v>8.805</v>
+      </c>
+      <c r="F518" t="n">
+        <v>1.02138</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>240</v>
+      </c>
+      <c r="B519" s="1" t="n">
+        <v>0.8668643434837963</v>
+      </c>
+      <c r="C519" t="n">
+        <v>84</v>
+      </c>
+      <c r="D519" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="E519" t="n">
+        <v>8.775</v>
+      </c>
+      <c r="F519" t="n">
+        <v>1.0179</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>241</v>
+      </c>
+      <c r="B520" s="1" t="n">
+        <v>0.8675584721180556</v>
+      </c>
+      <c r="C520" t="n">
+        <v>84</v>
+      </c>
+      <c r="D520" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="E520" t="n">
+        <v>8.76</v>
+      </c>
+      <c r="F520" t="n">
+        <v>1.01616</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>243</v>
+      </c>
+      <c r="B521" s="1" t="n">
+        <v>0.868945180798611</v>
+      </c>
+      <c r="C521" t="n">
+        <v>84</v>
+      </c>
+      <c r="D521" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="E521" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="F521" t="n">
+        <v>1.0092</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>246</v>
+      </c>
+      <c r="B522" s="1" t="n">
+        <v>0.8710304433564815</v>
+      </c>
+      <c r="C522" t="n">
+        <v>84</v>
+      </c>
+      <c r="D522" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="E522" t="n">
+        <v>8.549999999999999</v>
+      </c>
+      <c r="F522" t="n">
+        <v>0.9917999999999999</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>247</v>
+      </c>
+      <c r="B523" s="1" t="n">
+        <v>0.8717215585300926</v>
+      </c>
+      <c r="C523" t="n">
+        <v>84</v>
+      </c>
+      <c r="D523" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="E523" t="n">
+        <v>8.52</v>
+      </c>
+      <c r="F523" t="n">
+        <v>0.95424</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>248</v>
+      </c>
+      <c r="B524" s="1" t="n">
+        <v>0.872416657662037</v>
+      </c>
+      <c r="C524" t="n">
+        <v>84</v>
+      </c>
+      <c r="D524" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="E524" t="n">
+        <v>8.49</v>
+      </c>
+      <c r="F524" t="n">
+        <v>0.9508800000000001</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="n">
+        <v>249</v>
+      </c>
+      <c r="B525" s="1" t="n">
+        <v>0.8731102399305556</v>
+      </c>
+      <c r="C525" t="n">
+        <v>84</v>
+      </c>
+      <c r="D525" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="E525" t="n">
+        <v>8.49</v>
+      </c>
+      <c r="F525" t="n">
+        <v>0.9508800000000001</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="n">
+        <v>254</v>
+      </c>
+      <c r="B526" s="1" t="n">
+        <v>0.8765815987615742</v>
+      </c>
+      <c r="C526" t="n">
+        <v>84</v>
+      </c>
+      <c r="D526" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="E526" t="n">
+        <v>8.58</v>
+      </c>
+      <c r="F526" t="n">
+        <v>0.9952800000000001</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>3</v>
+      </c>
+      <c r="B527" s="1" t="n">
+        <v>0.8793597732060187</v>
+      </c>
+      <c r="C527" t="n">
+        <v>84</v>
+      </c>
+      <c r="D527" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="E527" t="n">
+        <v>8.549999999999999</v>
+      </c>
+      <c r="F527" t="n">
+        <v>0.9575999999999999</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>4</v>
+      </c>
+      <c r="B528" s="1" t="n">
+        <v>0.8800517293749999</v>
+      </c>
+      <c r="C528" t="n">
+        <v>84</v>
+      </c>
+      <c r="D528" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="E528" t="n">
+        <v>8.504999999999999</v>
+      </c>
+      <c r="F528" t="n">
+        <v>0.95256</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>5</v>
+      </c>
+      <c r="B529" s="1" t="n">
+        <v>0.8807442454629629</v>
+      </c>
+      <c r="C529" t="n">
+        <v>84</v>
+      </c>
+      <c r="D529" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="E529" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="F529" t="n">
+        <v>0.94416</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="n">
+        <v>13</v>
+      </c>
+      <c r="B530" s="1" t="n">
+        <v>0.8862978137500001</v>
+      </c>
+      <c r="C530" t="n">
+        <v>84</v>
+      </c>
+      <c r="D530" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="E530" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="F530" t="n">
+        <v>0.69696</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>14</v>
+      </c>
+      <c r="B531" s="1" t="n">
+        <v>0.8869908941087963</v>
+      </c>
+      <c r="C531" t="n">
+        <v>84</v>
+      </c>
+      <c r="D531" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="E531" t="n">
+        <v>7.035</v>
+      </c>
+      <c r="F531" t="n">
+        <v>0.6753600000000001</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>15</v>
+      </c>
+      <c r="B532" s="1" t="n">
+        <v>0.8876870237731481</v>
+      </c>
+      <c r="C532" t="n">
+        <v>84</v>
+      </c>
+      <c r="D532" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="E532" t="n">
+        <v>6.825</v>
+      </c>
+      <c r="F532" t="n">
+        <v>0.6279</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>17</v>
+      </c>
+      <c r="B533" s="1" t="n">
+        <v>0.8890756913773149</v>
+      </c>
+      <c r="C533" t="n">
+        <v>84</v>
+      </c>
+      <c r="D533" t="n">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="E533" t="n">
+        <v>6.465</v>
+      </c>
+      <c r="F533" t="n">
+        <v>0.56892</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>18</v>
+      </c>
+      <c r="B534" s="1" t="n">
+        <v>0.8897698229398148</v>
+      </c>
+      <c r="C534" t="n">
+        <v>84</v>
+      </c>
+      <c r="D534" t="n">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="E534" t="n">
+        <v>6.315</v>
+      </c>
+      <c r="F534" t="n">
+        <v>0.5557199999999999</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>19</v>
+      </c>
+      <c r="B535" s="1" t="n">
+        <v>0.8904618016898148</v>
+      </c>
+      <c r="C535" t="n">
+        <v>84</v>
+      </c>
+      <c r="D535" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="E535" t="n">
+        <v>6.194999999999999</v>
+      </c>
+      <c r="F535" t="n">
+        <v>0.52038</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>20</v>
+      </c>
+      <c r="B536" s="1" t="n">
+        <v>0.8911555236921297</v>
+      </c>
+      <c r="C536" t="n">
+        <v>84</v>
+      </c>
+      <c r="D536" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="E536" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="F536" t="n">
+        <v>0.51156</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>22</v>
+      </c>
+      <c r="B537" s="1" t="n">
+        <v>0.8925438983333334</v>
+      </c>
+      <c r="C537" t="n">
+        <v>84</v>
+      </c>
+      <c r="D537" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="E537" t="n">
+        <v>6</v>
+      </c>
+      <c r="F537" t="n">
+        <v>0.504</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>23</v>
+      </c>
+      <c r="B538" s="1" t="n">
+        <v>0.8932386839930556</v>
+      </c>
+      <c r="C538" t="n">
+        <v>84</v>
+      </c>
+      <c r="D538" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="E538" t="n">
+        <v>5.984999999999999</v>
+      </c>
+      <c r="F538" t="n">
+        <v>0.50274</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>25</v>
+      </c>
+      <c r="B539" s="1" t="n">
+        <v>0.8946271047337964</v>
+      </c>
+      <c r="C539" t="n">
+        <v>84</v>
+      </c>
+      <c r="D539" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E539" t="n">
+        <v>5.895</v>
+      </c>
+      <c r="F539" t="n">
+        <v>0.4716</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>28</v>
+      </c>
+      <c r="B540" s="1" t="n">
+        <v>0.8967097307060184</v>
+      </c>
+      <c r="C540" t="n">
+        <v>84</v>
+      </c>
+      <c r="D540" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E540" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="F540" t="n">
+        <v>0.4608</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>29</v>
+      </c>
+      <c r="B541" s="1" t="n">
+        <v>0.8974028409027778</v>
+      </c>
+      <c r="C541" t="n">
+        <v>84</v>
+      </c>
+      <c r="D541" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E541" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="F541" t="n">
+        <v>0.4584</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>34</v>
+      </c>
+      <c r="B542" s="1" t="n">
+        <v>0.9008727992592592</v>
+      </c>
+      <c r="C542" t="n">
+        <v>84</v>
+      </c>
+      <c r="D542" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E542" t="n">
+        <v>5.535</v>
+      </c>
+      <c r="F542" t="n">
+        <v>0.4428</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>37</v>
+      </c>
+      <c r="B543" s="1" t="n">
+        <v>0.9029555321064815</v>
+      </c>
+      <c r="C543" t="n">
+        <v>84</v>
+      </c>
+      <c r="D543" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="E543" t="n">
+        <v>5.175</v>
+      </c>
+      <c r="F543" t="n">
+        <v>0.3933</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="n">
+        <v>41</v>
+      </c>
+      <c r="B544" s="1" t="n">
+        <v>0.9057318</v>
+      </c>
+      <c r="C544" t="n">
+        <v>84</v>
+      </c>
+      <c r="D544" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="E544" t="n">
+        <v>4.694999999999999</v>
+      </c>
+      <c r="F544" t="n">
+        <v>0.31926</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="n">
+        <v>42</v>
+      </c>
+      <c r="B545" s="1" t="n">
+        <v>0.9064235140856483</v>
+      </c>
+      <c r="C545" t="n">
+        <v>84</v>
+      </c>
+      <c r="D545" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="E545" t="n">
+        <v>4.649999999999999</v>
+      </c>
+      <c r="F545" t="n">
+        <v>0.3162</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="n">
+        <v>44</v>
+      </c>
+      <c r="B546" s="1" t="n">
+        <v>0.9078125068981481</v>
+      </c>
+      <c r="C546" t="n">
+        <v>84</v>
+      </c>
+      <c r="D546" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="E546" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="F546" t="n">
+        <v>0.29376</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>45</v>
+      </c>
+      <c r="B547" s="1" t="n">
+        <v>0.9085062761921296</v>
+      </c>
+      <c r="C547" t="n">
+        <v>84</v>
+      </c>
+      <c r="D547" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="E547" t="n">
+        <v>4.545</v>
+      </c>
+      <c r="F547" t="n">
+        <v>0.29088</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>46</v>
+      </c>
+      <c r="B548" s="1" t="n">
+        <v>0.9092031152314815</v>
+      </c>
+      <c r="C548" t="n">
+        <v>84</v>
+      </c>
+      <c r="D548" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="E548" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F548" t="n">
+        <v>0.288</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="n">
+        <v>49</v>
+      </c>
+      <c r="B549" s="1" t="n">
+        <v>0.9112822036226852</v>
+      </c>
+      <c r="C549" t="n">
+        <v>84</v>
+      </c>
+      <c r="D549" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E549" t="n">
+        <v>4.335</v>
+      </c>
+      <c r="F549" t="n">
+        <v>0.2601</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="n">
+        <v>50</v>
+      </c>
+      <c r="B550" s="1" t="n">
+        <v>0.9119771261805555</v>
+      </c>
+      <c r="C550" t="n">
+        <v>84</v>
+      </c>
+      <c r="D550" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="E550" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="F550" t="n">
+        <v>0.24024</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="n">
+        <v>51</v>
+      </c>
+      <c r="B551" s="1" t="n">
+        <v>0.9126711276851852</v>
+      </c>
+      <c r="C551" t="n">
+        <v>84</v>
+      </c>
+      <c r="D551" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="E551" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="F551" t="n">
+        <v>0.23688</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="n">
+        <v>53</v>
+      </c>
+      <c r="B552" s="1" t="n">
+        <v>0.9140589850810186</v>
+      </c>
+      <c r="C552" t="n">
+        <v>84</v>
+      </c>
+      <c r="D552" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="E552" t="n">
+        <v>4.109999999999999</v>
+      </c>
+      <c r="F552" t="n">
+        <v>0.23016</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="n">
+        <v>54</v>
+      </c>
+      <c r="B553" s="1" t="n">
+        <v>0.9147529548842592</v>
+      </c>
+      <c r="C553" t="n">
+        <v>84</v>
+      </c>
+      <c r="D553" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="E553" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="F553" t="n">
+        <v>0.2268</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="n">
+        <v>59</v>
+      </c>
+      <c r="B554" s="1" t="n">
+        <v>0.9182242515277776</v>
+      </c>
+      <c r="C554" t="n">
+        <v>84</v>
+      </c>
+      <c r="D554" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="E554" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="F554" t="n">
+        <v>0.19656</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="n">
+        <v>60</v>
+      </c>
+      <c r="B555" s="1" t="n">
+        <v>0.9189181617592592</v>
+      </c>
+      <c r="C555" t="n">
+        <v>84</v>
+      </c>
+      <c r="D555" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="E555" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="F555" t="n">
+        <v>0.195</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="n">
+        <v>61</v>
+      </c>
+      <c r="B556" s="1" t="n">
+        <v>0.9196165166435185</v>
+      </c>
+      <c r="C556" t="n">
+        <v>84</v>
+      </c>
+      <c r="D556" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="E556" t="n">
+        <v>3.705</v>
+      </c>
+      <c r="F556" t="n">
+        <v>0.19266</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="n">
+        <v>63</v>
+      </c>
+      <c r="B557" s="1" t="n">
+        <v>0.9209988428009258</v>
+      </c>
+      <c r="C557" t="n">
+        <v>84</v>
+      </c>
+      <c r="D557" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="E557" t="n">
+        <v>3.675</v>
+      </c>
+      <c r="F557" t="n">
+        <v>0.1911</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="n">
+        <v>65</v>
+      </c>
+      <c r="B558" s="1" t="n">
+        <v>0.9223894126041666</v>
+      </c>
+      <c r="C558" t="n">
+        <v>84</v>
+      </c>
+      <c r="D558" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="E558" t="n">
+        <v>3.675</v>
+      </c>
+      <c r="F558" t="n">
+        <v>0.2058</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="n">
+        <v>69</v>
+      </c>
+      <c r="B559" s="1" t="n">
+        <v>0.9251641175347223</v>
+      </c>
+      <c r="C559" t="n">
+        <v>84</v>
+      </c>
+      <c r="D559" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="E559" t="n">
+        <v>3.615</v>
+      </c>
+      <c r="F559" t="n">
+        <v>0.24582</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="n">
+        <v>73</v>
+      </c>
+      <c r="B560" s="1" t="n">
+        <v>0.9279409623379629</v>
+      </c>
+      <c r="C560" t="n">
+        <v>84</v>
+      </c>
+      <c r="D560" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="E560" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="F560" t="n">
+        <v>0.26904</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="n">
+        <v>80</v>
+      </c>
+      <c r="B561" s="1" t="n">
+        <v>0.932800500763889</v>
+      </c>
+      <c r="C561" t="n">
+        <v>84</v>
+      </c>
+      <c r="D561" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="E561" t="n">
+        <v>3.285</v>
+      </c>
+      <c r="F561" t="n">
+        <v>0.27594</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="n">
+        <v>81</v>
+      </c>
+      <c r="B562" s="1" t="n">
+        <v>0.9334929221759259</v>
+      </c>
+      <c r="C562" t="n">
+        <v>84</v>
+      </c>
+      <c r="D562" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="E562" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="F562" t="n">
+        <v>0.27468</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="n">
+        <v>82</v>
+      </c>
+      <c r="B563" s="1" t="n">
+        <v>0.9341861360532407</v>
+      </c>
+      <c r="C563" t="n">
+        <v>84</v>
+      </c>
+      <c r="D563" t="n">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="E563" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="F563" t="n">
+        <v>0.28248</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="n">
+        <v>86</v>
+      </c>
+      <c r="B564" s="1" t="n">
+        <v>0.9369623718750001</v>
+      </c>
+      <c r="C564" t="n">
+        <v>84</v>
+      </c>
+      <c r="D564" t="n">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="E564" t="n">
+        <v>2.985</v>
+      </c>
+      <c r="F564" t="n">
+        <v>0.26268</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="n">
+        <v>88</v>
+      </c>
+      <c r="B565" s="1" t="n">
+        <v>0.938352281412037</v>
+      </c>
+      <c r="C565" t="n">
+        <v>84</v>
+      </c>
+      <c r="D565" t="n">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="E565" t="n">
+        <v>2.925</v>
+      </c>
+      <c r="F565" t="n">
+        <v>0.2574</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="n">
+        <v>91</v>
+      </c>
+      <c r="B566" s="1" t="n">
+        <v>0.9404325199189815</v>
+      </c>
+      <c r="C566" t="n">
+        <v>84</v>
+      </c>
+      <c r="D566" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="E566" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="F566" t="n">
+        <v>0.22932</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="n">
+        <v>92</v>
+      </c>
+      <c r="B567" s="1" t="n">
+        <v>0.9411265695833333</v>
+      </c>
+      <c r="C567" t="n">
+        <v>84</v>
+      </c>
+      <c r="D567" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="E567" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="F567" t="n">
+        <v>0.22176</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="n">
+        <v>94</v>
+      </c>
+      <c r="B568" s="1" t="n">
+        <v>0.9425155878472222</v>
+      </c>
+      <c r="C568" t="n">
+        <v>84</v>
+      </c>
+      <c r="D568" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E568" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="F568" t="n">
+        <v>0.1992</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="n">
+        <v>97</v>
+      </c>
+      <c r="B569" s="1" t="n">
+        <v>0.9445970133333333</v>
+      </c>
+      <c r="C569" t="n">
+        <v>84</v>
+      </c>
+      <c r="D569" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E569" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="F569" t="n">
+        <v>0.1824</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="n">
+        <v>99</v>
+      </c>
+      <c r="B570" s="1" t="n">
+        <v>0.9459890419675926</v>
+      </c>
+      <c r="C570" t="n">
+        <v>84</v>
+      </c>
+      <c r="D570" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="E570" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="F570" t="n">
+        <v>0.17892</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="n">
+        <v>101</v>
+      </c>
+      <c r="B571" s="1" t="n">
+        <v>0.9473740712152778</v>
+      </c>
+      <c r="C571" t="n">
+        <v>84</v>
+      </c>
+      <c r="D571" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="E571" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="F571" t="n">
+        <v>0.16632</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="n">
+        <v>106</v>
+      </c>
+      <c r="B572" s="1" t="n">
+        <v>0.9508467702199074</v>
+      </c>
+      <c r="C572" t="n">
+        <v>84</v>
+      </c>
+      <c r="D572" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="E572" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="F572" t="n">
+        <v>0.18816</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="n">
+        <v>109</v>
+      </c>
+      <c r="B573" s="1" t="n">
+        <v>0.9529292887962962</v>
+      </c>
+      <c r="C573" t="n">
+        <v>84</v>
+      </c>
+      <c r="D573" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="E573" t="n">
+        <v>1.575</v>
+      </c>
+      <c r="F573" t="n">
+        <v>0.2709</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="n">
+        <v>113</v>
+      </c>
+      <c r="B574" s="1" t="n">
+        <v>0.9557053315624999</v>
+      </c>
+      <c r="C574" t="n">
+        <v>84</v>
+      </c>
+      <c r="D574" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="E574" t="n">
+        <v>1.395</v>
+      </c>
+      <c r="F574" t="n">
+        <v>0.3348</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="n">
+        <v>114</v>
+      </c>
+      <c r="B575" s="1" t="n">
+        <v>0.9563970263425926</v>
+      </c>
+      <c r="C575" t="n">
+        <v>84</v>
+      </c>
+      <c r="D575" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E575" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F575" t="n">
+        <v>0.243</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="n">
+        <v>115</v>
+      </c>
+      <c r="B576" s="1" t="n">
+        <v>0.9570908217592592</v>
+      </c>
+      <c r="C576" t="n">
+        <v>84</v>
+      </c>
+      <c r="D576" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="E576" t="n">
+        <v>1.305</v>
+      </c>
+      <c r="F576" t="n">
+        <v>0.20358</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="n">
+        <v>117</v>
+      </c>
+      <c r="B577" s="1" t="n">
+        <v>0.9584814429282408</v>
+      </c>
+      <c r="C577" t="n">
+        <v>84</v>
+      </c>
+      <c r="D577" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="E577" t="n">
+        <v>1.245</v>
+      </c>
+      <c r="F577" t="n">
+        <v>0.17928</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="n">
+        <v>119</v>
+      </c>
+      <c r="B578" s="1" t="n">
+        <v>0.9598695766898148</v>
+      </c>
+      <c r="C578" t="n">
+        <v>84</v>
+      </c>
+      <c r="D578" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="E578" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F578" t="n">
+        <v>0.1302</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="n">
+        <v>120</v>
+      </c>
+      <c r="B579" s="1" t="n">
+        <v>0.9605614530324074</v>
+      </c>
+      <c r="C579" t="n">
+        <v>83</v>
+      </c>
+      <c r="D579" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="E579" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="F579" t="n">
+        <v>0.11136</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="n">
+        <v>121</v>
+      </c>
+      <c r="B580" s="1" t="n">
+        <v>0.9612547638773148</v>
+      </c>
+      <c r="C580" t="n">
+        <v>84</v>
+      </c>
+      <c r="D580" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E580" t="n">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="F580" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="n">
+        <v>126</v>
+      </c>
+      <c r="B581" s="1" t="n">
+        <v>0.9647259952546297</v>
+      </c>
+      <c r="C581" t="n">
+        <v>84</v>
+      </c>
+      <c r="D581" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="E581" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="F581" t="n">
+        <v>0.02142</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="n">
+        <v>129</v>
+      </c>
+      <c r="B582" s="1" t="n">
+        <v>0.966810106875</v>
+      </c>
+      <c r="C582" t="n">
+        <v>83</v>
+      </c>
+      <c r="D582" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E582" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="F582" t="n">
+        <v>0.01692</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="n">
+        <v>134</v>
+      </c>
+      <c r="B583" s="1" t="n">
+        <v>0.9702798736921296</v>
+      </c>
+      <c r="C583" t="n">
+        <v>84</v>
+      </c>
+      <c r="D583" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E583" t="n">
+        <v>0.6749999999999999</v>
+      </c>
+      <c r="F583" t="n">
+        <v>0.0135</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="n">
+        <v>135</v>
+      </c>
+      <c r="B584" s="1" t="n">
+        <v>0.9709740827314814</v>
+      </c>
+      <c r="C584" t="n">
+        <v>84</v>
+      </c>
+      <c r="D584" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E584" t="n">
+        <v>0.6749999999999999</v>
+      </c>
+      <c r="F584" t="n">
+        <v>0.0135</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="n">
+        <v>136</v>
+      </c>
+      <c r="B585" s="1" t="n">
+        <v>0.9716719937384259</v>
+      </c>
+      <c r="C585" t="n">
+        <v>83</v>
+      </c>
+      <c r="D585" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E585" t="n">
+        <v>0.6599999999999999</v>
+      </c>
+      <c r="F585" t="n">
+        <v>0.01584</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="n">
+        <v>138</v>
+      </c>
+      <c r="B586" s="1" t="n">
+        <v>0.9730558185185184</v>
+      </c>
+      <c r="C586" t="n">
+        <v>83</v>
+      </c>
+      <c r="D586" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E586" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="F586" t="n">
+        <v>0.01548</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="n">
+        <v>140</v>
+      </c>
+      <c r="B587" s="1" t="n">
+        <v>0.9744443886342592</v>
+      </c>
+      <c r="C587" t="n">
+        <v>84</v>
+      </c>
+      <c r="D587" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="E587" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F587" t="n">
+        <v>0.0168</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="n">
+        <v>141</v>
+      </c>
+      <c r="B588" s="1" t="n">
+        <v>0.975139134537037</v>
+      </c>
+      <c r="C588" t="n">
+        <v>83</v>
+      </c>
+      <c r="D588" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="E588" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F588" t="n">
+        <v>0.0168</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="n">
+        <v>144</v>
+      </c>
+      <c r="B589" s="1" t="n">
+        <v>0.9772209340625001</v>
+      </c>
+      <c r="C589" t="n">
+        <v>83</v>
+      </c>
+      <c r="D589" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="E589" t="n">
+        <v>0.5549999999999999</v>
+      </c>
+      <c r="F589" t="n">
+        <v>0.01554</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="n">
+        <v>145</v>
+      </c>
+      <c r="B590" s="1" t="n">
+        <v>0.9779162611111111</v>
+      </c>
+      <c r="C590" t="n">
+        <v>84</v>
+      </c>
+      <c r="D590" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E590" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F590" t="n">
+        <v>0.01296</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="n">
+        <v>148</v>
+      </c>
+      <c r="B591" s="1" t="n">
+        <v>0.9799988529398149</v>
+      </c>
+      <c r="C591" t="n">
+        <v>83</v>
+      </c>
+      <c r="D591" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E591" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F591" t="n">
+        <v>0.01152</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="n">
+        <v>153</v>
+      </c>
+      <c r="B592" s="1" t="n">
+        <v>0.9834701036921296</v>
+      </c>
+      <c r="C592" t="n">
+        <v>83</v>
+      </c>
+      <c r="D592" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E592" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F592" t="n">
+        <v>0.01008</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="n">
+        <v>154</v>
+      </c>
+      <c r="B593" s="1" t="n">
+        <v>0.9841647731365741</v>
+      </c>
+      <c r="C593" t="n">
+        <v>83</v>
+      </c>
+      <c r="D593" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E593" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F593" t="n">
+        <v>0.009719999999999999</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="n">
+        <v>156</v>
+      </c>
+      <c r="B594" s="1" t="n">
+        <v>0.9855522492361112</v>
+      </c>
+      <c r="C594" t="n">
+        <v>83</v>
+      </c>
+      <c r="D594" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E594" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F594" t="n">
+        <v>0.0075</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="n">
+        <v>159</v>
+      </c>
+      <c r="B595" s="1" t="n">
+        <v>0.9876329185995371</v>
+      </c>
+      <c r="C595" t="n">
+        <v>83</v>
+      </c>
+      <c r="D595" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E595" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F595" t="n">
+        <v>0.006599999999999999</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="n">
+        <v>161</v>
+      </c>
+      <c r="B596" s="1" t="n">
+        <v>0.9890209662962963</v>
+      </c>
+      <c r="C596" t="n">
+        <v>83</v>
+      </c>
+      <c r="D596" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E596" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F596" t="n">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="n">
+        <v>164</v>
+      </c>
+      <c r="B597" s="1" t="n">
+        <v>0.9911046710648149</v>
+      </c>
+      <c r="C597" t="n">
+        <v>83</v>
+      </c>
+      <c r="D597" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E597" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F597" t="n">
+        <v>0.0072</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="n">
+        <v>166</v>
+      </c>
+      <c r="B598" s="1" t="n">
+        <v>0.9924960886574075</v>
+      </c>
+      <c r="C598" t="n">
+        <v>83</v>
+      </c>
+      <c r="D598" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="E598" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F598" t="n">
+        <v>0.00912</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="n">
+        <v>167</v>
+      </c>
+      <c r="B599" s="1" t="n">
+        <v>0.9931898051273149</v>
+      </c>
+      <c r="C599" t="n">
+        <v>83</v>
+      </c>
+      <c r="D599" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="E599" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F599" t="n">
+        <v>0.01296</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="n">
+        <v>170</v>
+      </c>
+      <c r="B600" s="1" t="n">
+        <v>0.9952713165046296</v>
+      </c>
+      <c r="C600" t="n">
+        <v>83</v>
+      </c>
+      <c r="D600" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="E600" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F600" t="n">
+        <v>0.01734</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="n">
+        <v>171</v>
+      </c>
+      <c r="B601" s="1" t="n">
+        <v>0.995966357488426</v>
+      </c>
+      <c r="C601" t="n">
+        <v>83</v>
+      </c>
+      <c r="D601" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="E601" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F601" t="n">
+        <v>0.01734</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="n">
+        <v>173</v>
+      </c>
+      <c r="B602" s="1" t="n">
+        <v>0.997355516851852</v>
+      </c>
+      <c r="C602" t="n">
+        <v>83</v>
+      </c>
+      <c r="D602" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="E602" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F602" t="n">
+        <v>0.00672</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="n">
+        <v>175</v>
+      </c>
+      <c r="B603" s="1" t="n">
+        <v>0.9987431818055557</v>
+      </c>
+      <c r="C603" t="n">
+        <v>83</v>
+      </c>
+      <c r="D603" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E603" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F603" t="n">
+        <v>0.0117</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
